--- a/artfynd/A 49908-2020.xlsx
+++ b/artfynd/A 49908-2020.xlsx
@@ -2394,10 +2394,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111768503</v>
+        <v>111768476</v>
       </c>
       <c r="B16" t="n">
-        <v>88966</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2406,38 +2406,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5754</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2445,10 +2446,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>525545.3455456314</v>
+        <v>525546.5036804043</v>
       </c>
       <c r="R16" t="n">
-        <v>6727837.787189188</v>
+        <v>6727881.884716956</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2480,7 +2481,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2490,7 +2491,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2518,10 +2519,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111768476</v>
+        <v>111768503</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>88966</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2530,39 +2531,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>5754</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>525546.5036804043</v>
+        <v>525545.3455456314</v>
       </c>
       <c r="R17" t="n">
-        <v>6727881.884716956</v>
+        <v>6727837.787189188</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AD17" t="b">

--- a/artfynd/A 49908-2020.xlsx
+++ b/artfynd/A 49908-2020.xlsx
@@ -2394,10 +2394,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111768476</v>
+        <v>111768503</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>88966</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2406,39 +2406,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>5754</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2446,10 +2445,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>525546.5036804043</v>
+        <v>525545.3455456314</v>
       </c>
       <c r="R16" t="n">
-        <v>6727881.884716956</v>
+        <v>6727837.787189188</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2481,7 +2480,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2491,7 +2490,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2519,10 +2518,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111768503</v>
+        <v>111768476</v>
       </c>
       <c r="B17" t="n">
-        <v>88966</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2531,38 +2530,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5754</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>525545.3455456314</v>
+        <v>525546.5036804043</v>
       </c>
       <c r="R17" t="n">
-        <v>6727837.787189188</v>
+        <v>6727881.884716956</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AD17" t="b">

--- a/artfynd/A 49908-2020.xlsx
+++ b/artfynd/A 49908-2020.xlsx
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>525545.3455456314</v>
+        <v>525545</v>
       </c>
       <c r="R16" t="n">
-        <v>6727837.787189188</v>
+        <v>6727838</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2570,10 +2570,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>525546.5036804043</v>
+        <v>525547</v>
       </c>
       <c r="R17" t="n">
-        <v>6727881.884716956</v>
+        <v>6727882</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>

--- a/artfynd/A 49908-2020.xlsx
+++ b/artfynd/A 49908-2020.xlsx
@@ -2394,10 +2394,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111768503</v>
+        <v>111768476</v>
       </c>
       <c r="B16" t="n">
-        <v>88966</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2406,38 +2406,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5754</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2445,10 +2446,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>525545</v>
+        <v>525547</v>
       </c>
       <c r="R16" t="n">
-        <v>6727838</v>
+        <v>6727882</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2480,7 +2481,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2490,7 +2491,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2518,10 +2519,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111768476</v>
+        <v>111768503</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>88966</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2530,39 +2531,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>5754</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>525547</v>
+        <v>525545</v>
       </c>
       <c r="R17" t="n">
-        <v>6727882</v>
+        <v>6727838</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AD17" t="b">
